--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GI05MOAS-PG528\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12252" yWindow="2472" windowWidth="25320" windowHeight="10608" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12255" yWindow="2475" windowWidth="25320" windowHeight="10605" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Ref Des</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>N00546</t>
+  </si>
+  <si>
+    <t>OL000122</t>
   </si>
 </sst>
 </file>
@@ -983,17 +986,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="12" width="29.109375" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>47</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1089,23 +1092,23 @@
   <dimension ref="A1:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E19"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>40</v>
       </c>
@@ -1161,7 +1164,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="15"/>
@@ -1177,7 +1180,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>41</v>
       </c>
@@ -1207,7 +1210,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15"/>
@@ -1223,7 +1226,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>44</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="15"/>
@@ -1264,7 +1267,7 @@
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="15"/>
@@ -1305,7 +1308,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
@@ -1339,7 +1342,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>46</v>
       </c>
@@ -1371,7 +1374,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>46</v>
       </c>
@@ -1403,7 +1406,7 @@
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
         <v>46</v>
       </c>
@@ -1435,7 +1438,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
         <v>46</v>
       </c>
@@ -1467,7 +1470,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
         <v>46</v>
       </c>
@@ -1499,7 +1502,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
         <v>46</v>
       </c>
@@ -1531,7 +1534,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>46</v>
       </c>
@@ -1563,7 +1566,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
         <v>46</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>46</v>
       </c>
@@ -1627,7 +1630,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="15"/>
@@ -1643,7 +1646,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J21" s="28" t="s">
         <v>42</v>
       </c>
@@ -1667,7 +1670,7 @@
       </c>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J22" s="31" t="s">
         <v>42</v>
       </c>
@@ -1689,7 +1692,7 @@
       <c r="P22" s="18"/>
       <c r="Q22" s="19"/>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J23" s="31" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1714,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="19"/>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J24" s="31" t="s">
         <v>42</v>
       </c>
@@ -1733,7 +1736,7 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="19"/>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J25" s="31" t="s">
         <v>42</v>
       </c>
@@ -1755,7 +1758,7 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="19"/>
     </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J26" s="31" t="s">
         <v>42</v>
       </c>
@@ -1777,7 +1780,7 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="19"/>
     </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J27" s="31" t="s">
         <v>42</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="19"/>
     </row>
-    <row r="28" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J28" s="31" t="s">
         <v>42</v>
       </c>
@@ -1821,7 +1824,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="19"/>
     </row>
-    <row r="29" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J29" s="31" t="s">
         <v>42</v>
       </c>
@@ -1843,7 +1846,7 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="19"/>
     </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J30" s="31" t="s">
         <v>42</v>
       </c>
@@ -1866,7 +1869,7 @@
       <c r="Q30" s="29"/>
       <c r="R30" s="9"/>
     </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J31" s="31" t="s">
         <v>42</v>
       </c>
@@ -1889,7 +1892,7 @@
       <c r="Q31" s="29"/>
       <c r="R31" s="9"/>
     </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="J32" s="31" t="s">
         <v>42</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="Q32" s="29"/>
       <c r="R32" s="9"/>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="15"/>
@@ -1928,7 +1931,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1942,9 @@
       <c r="D34" s="11">
         <v>1</v>
       </c>
-      <c r="E34" s="11"/>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
       <c r="F34" s="13">
         <v>528</v>
       </c>
@@ -1954,7 +1959,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -16,24 +16,24 @@
     <sheet name="Asset_Cal_Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$H$35</definedName>
-    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$H$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Asset_Cal_Info!$A$1:$H$27</definedName>
+    <definedName name="_xlnm._FilterDatabase">Asset_Cal_Info!$A$1:$H$27</definedName>
     <definedName name="_FilterDatabase_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_0_0_0">Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0_0">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$402</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$394</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$402</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$402</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0_0">Asset_Cal_Info!$A$1:$H$394</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_1">Asset_Cal_Info!$A$1:$H$394</definedName>
     <definedName name="_FilterDatabase_0_0_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$402</definedName>
+    <definedName name="_FilterDatabase_0_0_1">Asset_Cal_Info!$A$1:$H$394</definedName>
     <definedName name="_FilterDatabase_0_1">Asset_Cal_Info!$A$1:$H$1</definedName>
-    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$35</definedName>
+    <definedName name="_FilterDatabase_1">Asset_Cal_Info!$A$1:$H$27</definedName>
     <definedName name="_FilterDatabase_1_1">Asset_Cal_Info!$A$1:$H$1</definedName>
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$98</definedName>
-    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$402</definedName>
+    <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$394</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
   <si>
     <t>Ref Des</t>
   </si>
@@ -95,24 +95,6 @@
     <t>No calibration coefficient</t>
   </si>
   <si>
-    <t>CC_dark_counts_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_dark_counts_chlorophyll_a</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_chlorophyll_a</t>
-  </si>
-  <si>
-    <t>CC_dark_counts_cdom</t>
-  </si>
-  <si>
-    <t>CC_scale_factor_cdom</t>
-  </si>
-  <si>
     <t>CC_scattering_angle</t>
   </si>
   <si>
@@ -123,36 +105,6 @@
   </si>
   <si>
     <t>CC_depolarization_ratio</t>
-  </si>
-  <si>
-    <t>CC_1_measurement_wavelength</t>
-  </si>
-  <si>
-    <t>CC_1_dark_counts_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_1_scale_factor_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_3_measurement_wavelength</t>
-  </si>
-  <si>
-    <t>CC_3_dark_counts_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_3_scale_factor_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_2_measurement_wavelength</t>
-  </si>
-  <si>
-    <t>CC_2_dark_counts_volume_scatter</t>
-  </si>
-  <si>
-    <t>CC_2_scale_factor_volume_scatter</t>
-  </si>
-  <si>
-    <t>Are these needed?</t>
   </si>
   <si>
     <t>59° 51.770' N</t>
@@ -169,6 +121,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -190,6 +143,7 @@
         <sz val="12"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>528</t>
     </r>
@@ -241,6 +195,33 @@
   </si>
   <si>
     <t>OL000122</t>
+  </si>
+  <si>
+    <t>CC_cal_temp</t>
+  </si>
+  <si>
+    <t>CC_wl</t>
+  </si>
+  <si>
+    <t>CC_eno3</t>
+  </si>
+  <si>
+    <t>CC_eswa</t>
+  </si>
+  <si>
+    <t>CC_di</t>
+  </si>
+  <si>
+    <t>CC_lower_wavelength_limit_for_spectra_fit</t>
+  </si>
+  <si>
+    <t>CC_upper_wavelength_limit_for_spectra_fit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant.   </t>
+  </si>
+  <si>
+    <t>OL000167</t>
   </si>
 </sst>
 </file>
@@ -250,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,6 +330,7 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -357,8 +339,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +364,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCECFF"/>
         <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -471,7 +460,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -516,30 +505,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -559,12 +529,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,6 +537,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -997,49 +968,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="38" t="s">
+      <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5">
         <v>528</v>
@@ -1054,17 +1025,17 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="37">
+      <c r="H2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="28">
         <v>200</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="16">
@@ -1089,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,37 +1080,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15">
         <v>528</v>
@@ -1148,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F2" s="13">
         <v>9258</v>
@@ -1182,10 +1153,10 @@
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15">
         <v>528</v>
@@ -1194,7 +1165,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F4" s="13">
         <v>401</v>
@@ -1228,10 +1199,10 @@
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15">
         <v>528</v>
@@ -1240,405 +1211,364 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="F6" s="11">
         <v>350</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15">
+        <v>528</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11">
+        <v>350</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="15">
+        <v>528</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="11">
+        <v>350</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="15">
+        <v>528</v>
+      </c>
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="11">
+        <v>350</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="15">
+        <v>528</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="11">
+        <v>350</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="15">
+        <v>528</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11">
+        <v>350</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="15">
-        <v>528</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="H11" s="17"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15">
+        <v>528</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="11">
+        <v>350</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="11"/>
+      <c r="E13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15">
+        <v>528</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="11">
         <v>50193</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="9" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="15">
-        <v>528</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="13">
-        <v>3777</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="24">
-        <v>44</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="32">
-        <v>528</v>
-      </c>
-      <c r="D11" s="33">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="34">
-        <v>3777</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="25">
-        <v>1.5829999999999999E-6</v>
-      </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-    </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="32">
-        <v>528</v>
-      </c>
-      <c r="D12" s="33">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="34">
-        <v>3777</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="24">
-        <v>45</v>
-      </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="32">
-        <v>528</v>
-      </c>
-      <c r="D13" s="33">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="34">
-        <v>3777</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="24">
-        <v>7.3000000000000001E-3</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="32">
-        <v>528</v>
-      </c>
-      <c r="D14" s="33">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="34">
-        <v>3777</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="24">
-        <v>43</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="32">
-        <v>528</v>
-      </c>
-      <c r="D15" s="33">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="34">
-        <v>3777</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="24">
-        <v>9.0700000000000003E-2</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
-        <v>46</v>
+      <c r="A16" s="21" t="s">
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="32">
-        <v>528</v>
-      </c>
-      <c r="D16" s="33">
+        <v>32</v>
+      </c>
+      <c r="C16" s="15">
+        <v>528</v>
+      </c>
+      <c r="D16" s="11">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="34">
+        <v>38</v>
+      </c>
+      <c r="F16" s="13">
         <v>3777</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="35">
+      <c r="G16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="32">
         <v>124</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="22"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>46</v>
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="32">
-        <v>528</v>
-      </c>
-      <c r="D17" s="33">
+        <v>32</v>
+      </c>
+      <c r="C17" s="25">
+        <v>528</v>
+      </c>
+      <c r="D17" s="26">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="34">
+        <v>38</v>
+      </c>
+      <c r="F17" s="27">
         <v>3777</v>
       </c>
-      <c r="G17" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19">
         <v>700</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
+      <c r="I17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="22"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>46</v>
+    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="32">
-        <v>528</v>
-      </c>
-      <c r="D18" s="33">
+        <v>32</v>
+      </c>
+      <c r="C18" s="25">
+        <v>528</v>
+      </c>
+      <c r="D18" s="26">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="34">
+        <v>38</v>
+      </c>
+      <c r="F18" s="27">
         <v>3777</v>
       </c>
-      <c r="G18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" s="36">
+      <c r="G18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="33">
         <v>1.0760000000000001</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
+      <c r="I18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J18" s="22"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>46</v>
+    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="32">
-        <v>528</v>
-      </c>
-      <c r="D19" s="33">
+        <v>32</v>
+      </c>
+      <c r="C19" s="25">
+        <v>528</v>
+      </c>
+      <c r="D19" s="26">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="34">
+        <v>38</v>
+      </c>
+      <c r="F19" s="27">
         <v>3777</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="23">
+      <c r="G19" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="20">
         <v>3.9E-2</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="I19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="22"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1646,334 +1576,169 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="15">
-        <v>528</v>
-      </c>
-      <c r="L21" s="11">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="15">
+        <v>528</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="11">
         <v>1240</v>
       </c>
-      <c r="N21" s="21" t="s">
+      <c r="G21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="32">
+        <v>124</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="O21" s="26">
-        <v>650</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J22" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="32">
-        <v>528</v>
-      </c>
-      <c r="L22" s="33">
-        <v>1</v>
-      </c>
-      <c r="M22" s="33">
+      <c r="C22" s="25">
+        <v>528</v>
+      </c>
+      <c r="D22" s="26">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="26">
         <v>1240</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="G22" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="19">
+        <v>700</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="25">
+        <v>528</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="26">
+        <v>1240</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="33">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="25">
+        <v>528</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1240</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="20">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O22" s="26">
-        <v>41</v>
-      </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J23" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="32">
-        <v>528</v>
-      </c>
-      <c r="L23" s="33">
-        <v>1</v>
-      </c>
-      <c r="M23" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="27">
-        <v>3.602E-6</v>
-      </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J24" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="32">
-        <v>528</v>
-      </c>
-      <c r="L24" s="33">
-        <v>1</v>
-      </c>
-      <c r="M24" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N24" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="26">
-        <v>532</v>
-      </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J25" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="32">
-        <v>528</v>
-      </c>
-      <c r="L25" s="33">
-        <v>1</v>
-      </c>
-      <c r="M25" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="O25" s="26">
+      <c r="B26" s="8"/>
+      <c r="C26" s="15">
+        <v>528</v>
+      </c>
+      <c r="D26" s="11">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>39</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J26" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="32">
-        <v>528</v>
-      </c>
-      <c r="L26" s="33">
-        <v>1</v>
-      </c>
-      <c r="M26" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="O26" s="27">
-        <v>7.1539999999999996E-6</v>
-      </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="32">
-        <v>528</v>
-      </c>
-      <c r="L27" s="33">
-        <v>1</v>
-      </c>
-      <c r="M27" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" s="26">
-        <v>470</v>
-      </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J28" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="32">
-        <v>528</v>
-      </c>
-      <c r="L28" s="33">
-        <v>1</v>
-      </c>
-      <c r="M28" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N28" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="26">
-        <v>50</v>
-      </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J29" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="32">
-        <v>528</v>
-      </c>
-      <c r="L29" s="33">
-        <v>1</v>
-      </c>
-      <c r="M29" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="27">
-        <v>1.1029999999999999E-5</v>
-      </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="19"/>
-    </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J30" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="32">
-        <v>528</v>
-      </c>
-      <c r="L30" s="33">
-        <v>1</v>
-      </c>
-      <c r="M30" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N30" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="35">
-        <v>124</v>
-      </c>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="9"/>
-    </row>
-    <row r="31" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J31" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="32">
-        <v>528</v>
-      </c>
-      <c r="L31" s="33">
-        <v>1</v>
-      </c>
-      <c r="M31" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N31" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="O31" s="36">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="9"/>
-    </row>
-    <row r="32" spans="1:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="J32" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="32">
-        <v>528</v>
-      </c>
-      <c r="L32" s="33">
-        <v>1</v>
-      </c>
-      <c r="M32" s="33">
-        <v>1240</v>
-      </c>
-      <c r="N32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="23">
-        <v>3.9E-2</v>
-      </c>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="9"/>
-    </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-    </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="15">
-        <v>528</v>
-      </c>
-      <c r="D34" s="11">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="13">
-        <v>528</v>
-      </c>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="9" t="s">
+      <c r="F26" s="13">
+        <v>528</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-    </row>
-    <row r="35" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12255" yWindow="2475" windowWidth="25320" windowHeight="10605" tabRatio="377" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$394</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -707,7 +702,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,7 +737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,17 +952,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="9" width="20.85546875" customWidth="1"/>
-    <col min="10" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="9" width="20.83203125" customWidth="1"/>
+    <col min="10" max="11" width="15.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
@@ -1005,7 +1000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1066,20 +1061,20 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.1640625" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="24">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1130,7 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="15"/>
@@ -1151,7 +1146,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
@@ -1181,7 +1176,7 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15"/>
@@ -1197,7 +1192,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="1" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
@@ -1224,7 +1219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="1" customFormat="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1244,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="1" customFormat="1">
       <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1269,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="1" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1294,7 @@
       <c r="H9" s="17"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="1" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1319,7 @@
       <c r="H10" s="17"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="1" customFormat="1">
       <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
@@ -1349,7 +1344,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="1" customFormat="1">
       <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1369,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="1" customFormat="1">
       <c r="A13" s="8"/>
       <c r="B13"/>
       <c r="C13" s="15"/>
@@ -1385,7 +1380,7 @@
       <c r="H13" s="17"/>
       <c r="I13" s="9"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="1" customFormat="1">
       <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="1" customFormat="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="15"/>
@@ -1426,7 +1421,7 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="1" customFormat="1">
       <c r="A16" s="21" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1455,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="1" customFormat="1">
       <c r="A17" s="24" t="s">
         <v>30</v>
       </c>
@@ -1494,7 +1489,7 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="1" customFormat="1">
       <c r="A18" s="24" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1523,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="1" customFormat="1">
       <c r="A19" s="24" t="s">
         <v>30</v>
       </c>
@@ -1562,7 +1557,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="1" customFormat="1">
       <c r="A20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="15"/>
@@ -1576,7 +1571,7 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="1" customFormat="1">
       <c r="A21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="1" customFormat="1">
       <c r="A22" s="24" t="s">
         <v>26</v>
       </c>
@@ -1628,7 +1623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="1" customFormat="1">
       <c r="A23" s="24" t="s">
         <v>26</v>
       </c>
@@ -1654,7 +1649,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="1" customFormat="1">
       <c r="A24" s="24" t="s">
         <v>26</v>
       </c>
@@ -1680,7 +1675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="15"/>
@@ -1696,7 +1691,7 @@
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="1" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1719,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="1" customFormat="1">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="11"/>
@@ -1742,7 +1737,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="1680" yWindow="1320" windowWidth="26240" windowHeight="13260" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$98</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$394</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
   <si>
     <t>Ref Des</t>
   </si>
@@ -217,6 +217,18 @@
   </si>
   <si>
     <t>OL000167</t>
+  </si>
+  <si>
+    <t>[189.69, 190.47, 191.26, 192.04, 192.83, 193.61, 194.39, 195.18, 195.97, 196.75, 197.54, 198.32, 199.11, 199.9, 200.69, 201.47, 202.26, 203.05, 203.84, 204.63, 205.42, 206.2, 206.99, 207.78, 208.57, 209.36, 210.15, 210.95, 211.74, 212.53, 213.32, 214.11, 214.9, 215.7, 216.49, 217.28, 218.07, 218.87, 219.66, 220.45, 221.25, 222.04, 222.84, 223.63, 224.43, 225.22, 226.02, 226.81, 227.61, 228.4, 229.2, 230, 230.79, 231.59, 232.39, 233.18, 233.98, 234.78, 235.58, 236.37, 237.17, 237.97, 238.77, 239.57, 240.37, 241.17, 241.97, 242.77, 243.57, 244.37, 245.17, 245.97, 246.77, 247.57, 248.37, 249.17, 249.97, 250.77, 251.57, 252.37, 253.18, 253.98, 254.78, 255.58, 256.38, 257.19, 257.99, 258.79, 259.59, 260.4, 261.2, 262, 262.81, 263.61, 264.41, 265.22, 266.02, 266.83, 267.63, 268.44, 269.24, 270.04, 270.85, 271.65, 272.46, 273.26, 274.07, 274.87, 275.68, 276.49, 277.29, 278.1, 278.9, 279.71, 280.52, 281.32, 282.13, 282.93, 283.74, 284.55, 285.35, 286.16, 286.97, 287.77, 288.58, 289.39, 290.19, 291, 291.81, 292.62, 293.42, 294.23, 295.04, 295.85, 296.65, 297.46, 298.27, 299.08, 299.88, 300.69, 301.5, 302.31, 303.12, 303.92, 304.73, 305.54, 306.35, 307.16, 307.96, 308.77, 309.58, 310.39, 311.2, 312.01, 312.81, 313.62, 314.43, 315.24, 316.05, 316.86, 317.67, 318.47, 319.28, 320.09, 320.9, 321.71, 322.52, 323.33, 324.13, 324.94, 325.75, 326.56, 327.37, 328.18, 328.99, 329.79, 330.6, 331.41, 332.22, 333.03, 333.84, 334.64, 335.45, 336.26, 337.07, 337.88, 338.69, 339.49, 340.3, 341.11, 341.92, 342.73, 343.53, 344.34, 345.15, 345.96, 346.77, 347.57, 348.38, 349.19, 350, 350.8, 351.61, 352.42, 353.23, 354.03, 354.84, 355.65, 356.45, 357.26, 358.07, 358.87, 359.68, 360.49, 361.29, 362.1, 362.91, 363.71, 364.52, 365.32, 366.13, 366.94, 367.74, 368.55, 369.35, 370.16, 370.96, 371.77, 372.57, 373.38, 374.18, 374.99, 375.79, 376.6, 377.4, 378.21, 379.01, 379.81, 380.62, 381.42, 382.23, 383.03, 383.83, 384.64, 385.44, 386.24, 387.04, 387.85, 388.65, 389.45, 390.25, 391.06, 391.86, 392.66, 393.46, 394.26]</t>
+  </si>
+  <si>
+    <t>[-0.00021425, -0.00461322, -0.03471286, -0.0012909, -0.01002091, 0.01572297, 0.0137133, 0.00178863, -0.00303613, -0.00114568, -0.00196477, -0.00884724, -0.0080948, 0.00074724, -0.01742237, 0.00992815, -0.00428105, 0.01929635, -0.00725399, -0.00201656, -0.00014736, 0.00232121, 0.01006033, 0.00643182, 0.00592234, 0.00827105, 0.00793879, 0.0071555, 0.00681379, 0.00660685, 0.00613918, 0.00588971, 0.00556329, 0.00524898, 0.00487834, 0.00456418, 0.00421566, 0.00389696, 0.00358277, 0.00327313, 0.00297306, 0.00268393, 0.00241168, 0.00214562, 0.00190938, 0.00168818, 0.00146822, 0.00127449, 0.00111369, 0.00095278, 0.00082719, 0.0007016, 0.00056811, 0.00048025, 0.00040517, 0.00033889, 0.00028127, 0.0002294, 0.0001781, 0.00014223, 0.0001068, 0.00008257, 0.00006559, 0.00004768, 0.0000257, 0.0000245, 0.00000502, 0.00000903, -0.00000713, -0.00000045, 0.00000078, -0.00000975, -0.000003, -0.00001411, -0.00001184, -0.00001323, -0.00002696, -0.0000161, -0.00000901, -0.00002004, -0.00000137, 0.00000523, 0.00000359, 0.00000762, 0.00000634, 0.00002188, 0.00000603, 0.00000405, 0.00001322, 0.00001665, 0.00001321, 0.00001993, 0.00001924, 0.00003445, 0.00003655, 0.00003616, 0.00004346, 0.00004745, 0.00005631, 0.0000323, 0.00005591, 0.00003432, 0.00004427, 0.00005948, 0.00005379, 0.00007259, 0.00006885, 0.00006693, 0.0000771, 0.00007856, 0.00008285, 0.00008123, 0.00009142, 0.0000802, 0.00007889, 0.0000932, 0.00009667, 0.0001042, 0.00007186, 0.00009852, 0.00010934, 0.00010417, 0.00009298, 0.00010215, 0.00011711, 0.00013426, 0.00011756, 0.00012793, 0.00014444, 0.00013154, 0.00014673, 0.00013831, 0.00015824, 0.00013712, 0.00014341, 0.00016351, 0.0001582, 0.00015813, 0.00015783, 0.00013898, 0.00015188, 0.0001676, 0.0001659, 0.00016325, 0.00016915, 0.00016691, 0.00018059, 0.00019081, 0.00019126, 0.00018127, 0.00020239, 0.0001831, 0.00019906, 0.00020395, 0.0001953, 0.00020427, 0.00020199, 0.0002171, 0.00020962, 0.00023148, 0.0002201, 0.00021582, 0.0002339, 0.00023631, 0.00022546, 0.00023706, 0.00023951, 0.00026088, 0.00023879, 0.00024515, 0.00023292, 0.00026366, 0.00024974, 0.00025303, 0.00025803, 0.00027393, 0.00027042, 0.00027642, 0.000282, 0.00026678, 0.00027177, 0.00027491, 0.00025061, 0.00027081, 0.00029201, 0.0002908, 0.00028492, 0.0003058, 0.00031599, 0.00031152, 0.00031588, 0.00033289, 0.00028729, 0.00030352, 0.00033357, 0.00033272, 0.00032157, 0.00031632, 0.00033055, 0.00033786, 0.00034263, 0.00034273, 0.00034455, 0.00036475, 0.00035646, 0.00035561, 0.00036635, 0.00035815, 0.0003601, 0.00036304, 0.00037052, 0.0003858, 0.0003736, 0.00037849, 0.00040195, 0.00040337, 0.00039936, 0.00038445, 0.00041048, 0.00042139, 0.00040596, 0.00040546, 0.00041635, 0.00042452, 0.00041937, 0.00043566, 0.00043013, 0.00044192, 0.00045126, 0.00045019, 0.00047114, 0.00043082, 0.0004531, 0.00044963, 0.00048421, 0.00043218, 0.00050073, 0.00048945, 0.00050841, 0.00047831, 0.00050603, 0.00046158, 0.00051902, 0.00049463, 0.00050197, 0.00050619, 0.00053299, 0.00052907, 0.00050227, 0.00053418, 0.00050914, 0.00053763, 0.0005046, 0.00055875, 0.00054377, 0.0005558]</t>
+  </si>
+  <si>
+    <t>[-0.00035427, 0.01204174, 0.04747922, 0.00498282, 0.00304351, 0.00153688, 0.0072225, -0.00742801, -0.00881144, -0.00395838, 0.00675199, 0.02111784, 0.03217874, 0.04164911, 0.07202859, 0.06473948, 0.0772996, 0.08350089, 0.08567336, 0.08473379, 0.08024467, 0.07674616, 0.07270172, 0.06528003, 0.05738647, 0.04886592, 0.04034703, 0.03416583, 0.02805719, 0.02298243, 0.0187789, 0.01517481, 0.01221288, 0.00976399, 0.00782712, 0.0062149, 0.00491848, 0.00387425, 0.00304478, 0.00239784, 0.00187893, 0.00146534, 0.00114971, 0.00089933, 0.00071807, 0.00053966, 0.00043759, 0.00033895, 0.00027803, 0.00022638, 0.00015934, 0.0001462, 0.00013217, 0.00011779, 0.00009441, 0.00008257, 0.00006661, 0.00004581, 0.00004529, 0.0000359, 0.00003726, 0.00002604, 0.00002465, 0.00002098, 0.00001952, 0.00000809, 0.00000959, -0.00000734, 0.0000028, 0.0000038, -0.00001327, -0.00000684, -0.00001424, -0.00000525, -0.00000275, 0.0000007, 0.00000327, 0.000015, -0.00000725, -0.00000302, -0.00001884, -0.00000945, -0.00000364, 0.00001001, -0.00001564, -0.00001059, 0.00001512, 0.0000003, 0.00002993, 0.00001409, 0.00002444, 0.00001761, 0.00001659, 0.0000085, 0.00001253, 0.00003227, 0.00002514, 0.00000308, 0.00002011, 0.0000263, 0.00002848, 0.00004113, 0.00003526, 0.00001865, 0.00004321, 0.00002842, 0.00002663, 0.00003159, 0.00004389, 0.0000231, 0.00004319, 0.00001916, 0.00003243, 0.00005018, 0.00003757, 0.0000417, 0.00004012, 0.00002913, 0.00005817, 0.00003749, 0.00005662, 0.00006599, 0.00007015, 0.00005121, 0.00007231, 0.00003452, 0.00004603, 0.00006855, 0.00004657, 0.00005491, 0.00004079, 0.00007177, 0.0000615, 0.00007173, 0.00005326, 0.00005364, 0.00006645, 0.00006987, 0.0000659, 0.00009308, 0.00009397, 0.00009191, 0.00007844, 0.00010098, 0.00009358, 0.00009028, 0.00009908, 0.00008954, 0.00007818, 0.00010396, 0.00008845, 0.00010103, 0.00010066, 0.00010377, 0.0001249, 0.00011409, 0.00011746, 0.00010487, 0.00012044, 0.00012053, 0.00011097, 0.0001315, 0.00010097, 0.00011714, 0.0001158, 0.00014344, 0.00012429, 0.00011603, 0.00014677, 0.00012552, 0.00015669, 0.00012656, 0.00016034, 0.00014542, 0.00015172, 0.00013399, 0.00013722, 0.00013, 0.00014002, 0.00017287, 0.00019514, 0.00017033, 0.0002091, 0.00017748, 0.00017451, 0.00014968, 0.00016483, 0.00017048, 0.00017453, 0.00019243, 0.00021182, 0.00019687, 0.00021466, 0.00020756, 0.00020483, 0.00016977, 0.00019641, 0.00020883, 0.0002028, 0.00019185, 0.00020231, 0.00020758, 0.000219, 0.00022072, 0.00021994, 0.00024393, 0.00022083, 0.00024006, 0.00022563, 0.00023015, 0.00023681, 0.00022133, 0.00024952, 0.00021158, 0.00022606, 0.00021206, 0.00022996, 0.00025155, 0.00025662, 0.00024803, 0.00026479, 0.00025356, 0.0002693, 0.00028489, 0.00026545, 0.0002224, 0.00027264, 0.00024901, 0.00027484, 0.00024837, 0.00029573, 0.00025025, 0.0002356, 0.00025622, 0.00027849, 0.000271, 0.00024874, 0.00026675, 0.00026861, 0.00029677, 0.00027193, 0.00029015, 0.00028966, 0.00030541, 0.00031071, 0.00028235, 0.00027932, 0.00029573, 0.00029888, 0.00035826, 0.00031793, 0.00030131, 0.0003243, 0.0002905, 0.00027398, 0.0002634]</t>
+  </si>
+  <si>
+    <t>[35.5, 30.25, 32.45833333, 31.375, 37.16666667, 33.16666667, 30.79166667, 35.79166667, 28.625, 28.79166667, 37, 53.125, 178.5, 614.70833333, 1794.58333333, 4187.20833333, 7846.95833333, 12101.54166667, 15879.25, 18519.95833333, 19933.625, 20472.75, 20511.41666667, 20416.75, 20357.875, 20476.625, 20852.29166667, 21491.45833333, 22448.08333333, 23705.375, 25275, 27171.04166667, 29330, 31683.54166667, 34107.125, 36502.91666667, 38640.25, 40346.45833333, 41497.5, 41946.45833333, 41677.625, 40784.04166667, 39421.66666667, 37795.33333333, 36123.79166667, 34484.625, 33101.45833333, 31984, 31139.625, 30600.95833333, 30413.75, 30464.91666667, 30822.58333333, 31463.70833333, 32350.41666667, 33464, 34839.125, 36389.58333333, 38099.95833333, 39976.08333333, 41872.20833333, 43793.83333333, 45632.91666667, 47223.16666667, 48541.79166667, 49454.83333333, 49834.45833333, 49728.54166667, 49063.45833333, 47855.54166667, 46289.125, 44420.20833333, 42358.5, 40296.70833333, 38243.33333333, 36287.08333333, 34509.20833333, 32913.16666667, 31490.20833333, 30271.25, 29225.08333333, 28354.95833333, 27641.33333333, 27090.79166667, 26687.33333333, 26424.83333333, 26312.16666667, 26343.16666667, 26488.375, 26776.79166667, 27182.875, 27730.16666667, 28352.79166667, 29089.625, 29891.54166667, 30729.79166667, 31600.20833333, 32447.08333333, 33196.66666667, 33847.54166667, 34313.83333333, 34538.33333333, 34498.625, 34226, 33656.33333333, 32870.70833333, 31899.41666667, 30787.125, 29602.54166667, 28403.08333333, 27239.41666667, 26124.58333333, 25064.875, 24131.20833333, 23292.04166667, 22561.16666667, 21917.66666667, 21388.70833333, 20958.875, 20624.91666667, 20386.375, 20229.04166667, 20176.08333333, 20203.33333333, 20319.54166667, 20523.875, 20811.16666667, 21183.79166667, 21647.66666667, 22158.66666667, 22759.16666667, 23433.20833333, 24140.33333333, 24892.25, 25708.04166667, 26547.66666667, 27412.625, 28299.125, 29182.125, 30028.875, 30849.70833333, 31582.83333333, 32280.79166667, 32886.66666667, 33348.45833333, 33708.33333333, 33950.875, 34063.375, 34033.5, 33882.125, 33552.41666667, 33145.66666667, 32638.70833333, 32021.16666667, 31353.16666667, 30626.79166667, 29856.16666667, 29071.41666667, 28295.70833333, 27496, 26763.08333333, 26053.79166667, 25376.20833333, 24756.08333333, 24175.83333333, 23643.625, 23155.625, 22695.79166667, 22268.16666667, 21843.875, 21444.95833333, 21048.75, 20665.66666667, 20317.83333333, 20006, 19731.125, 19495.83333333, 19293.41666667, 19140.16666667, 19013.875, 18922.58333333, 18863.20833333, 18818.79166667, 18808.79166667, 18786.54166667, 18760.66666667, 18734.125, 18737.41666667, 18721.375, 18728.16666667, 18718.83333333, 18675.70833333, 18669.83333333, 18681.08333333, 18698.75, 18745.625, 18783.66666667, 18836.29166667, 18873.66666667, 18901.875, 18959, 19022.20833333, 19080.5, 19111, 19149.625, 19152.58333333, 19133.29166667, 19120.79166667, 19070, 19001.95833333, 18897.66666667, 18755.33333333, 18589.375, 18411.375, 18179.33333333, 17938.20833333, 17676.875, 17376.25, 17075.70833333, 16781.45833333, 16496.41666667, 16227.58333333, 15928.75, 15567.66666667, 15175.66666667, 14760.5, 15745, 15352, 15026, 14692, 14489, 14195, 13974, 13752, 13602, 13495, 13454, 13349, 13107, 12834, 12651, 12463, 12330, 12205, 12059, 11928, 11881, 11890, 11806, 11524, 10981, 10364, 9625, 8729, 7637, 6328]</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -454,8 +466,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -540,8 +554,11 @@
     <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="37">
     <cellStyle name="Excel Built-in Normal" xfId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -558,6 +575,7 @@
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
@@ -573,6 +591,7 @@
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 14" xfId="4"/>
     <cellStyle name="Normal 15" xfId="1"/>
@@ -948,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1057,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1214,7 +1233,9 @@
       <c r="G6" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="17">
+        <v>19.93</v>
+      </c>
       <c r="I6" s="9" t="s">
         <v>15</v>
       </c>
@@ -1241,7 +1262,9 @@
       <c r="G7" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1">
@@ -1266,7 +1289,9 @@
       <c r="G8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1">
@@ -1291,7 +1316,9 @@
       <c r="G9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="17"/>
+      <c r="H9" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1">
@@ -1316,7 +1343,9 @@
       <c r="G10" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="17"/>
+      <c r="H10" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1">
@@ -1341,7 +1370,9 @@
       <c r="G11" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="17"/>
+      <c r="H11" s="34">
+        <v>217</v>
+      </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1">
@@ -1366,7 +1397,9 @@
       <c r="G12" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="17"/>
+      <c r="H12" s="34">
+        <v>240</v>
+      </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1">

--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="1320" windowWidth="26240" windowHeight="13260" tabRatio="377"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1038,7 +1038,9 @@
       <c r="F2" s="7">
         <v>0.51736111111111105</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6">
+        <v>42529</v>
+      </c>
       <c r="H2" s="23" t="s">
         <v>20</v>
       </c>

--- a/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GI05MOAS-PG528_00001.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1320" windowWidth="26240" windowHeight="13260" tabRatio="377"/>
+    <workbookView xWindow="5880" yWindow="10340" windowWidth="26240" windowHeight="13260" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -968,7 +968,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1039,7 +1039,7 @@
         <v>0.51736111111111105</v>
       </c>
       <c r="G2" s="6">
-        <v>42529</v>
+        <v>42539</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>20</v>
